--- a/Modules_Boards/SIM800/Main_AT_Commands.xlsx
+++ b/Modules_Boards/SIM800/Main_AT_Commands.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11033ABE-91A7-4C76-BC82-BC87D9462C32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BEB267-3B3F-42EF-88BA-539EEF4DB292}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,6 @@
 +CPIN:  PH_SIM PUK
 +CPIN:  SIM PIN2
 +CPIN:  SIM PUK2</t>
-  </si>
-  <si>
-    <t>AT+IPR=9600</t>
   </si>
   <si>
     <t>Задание скорости порта (0, 1200, 2400, 4800, 9600, 19200, 38400, 57600, 115200)
@@ -951,6 +948,9 @@
       </rPr>
       <t xml:space="preserve"> - строковый параметр, который указывает пароль GPRS. Максимальная длина 50 байт</t>
     </r>
+  </si>
+  <si>
+    <t>AT+IPR=9600;&amp;w</t>
   </si>
 </sst>
 </file>
@@ -1494,20 +1494,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="81" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="18.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1521,15 +1521,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.6">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.5">
       <c r="A2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="172.8">
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="174">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>15</v>
@@ -1539,21 +1539,21 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="187.2">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="188.5">
       <c r="A4" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="100.8">
+    <row r="5" spans="1:4" ht="101.5">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -1561,35 +1561,35 @@
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="15.6">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="15.5">
       <c r="A6" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:4" ht="43.2">
+    <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="86.4">
+    <row r="8" spans="1:4" ht="87">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -1603,9 +1603,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" ht="15.5">
       <c r="A9" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1667,29 +1667,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6">
+    <row r="14" spans="1:4" ht="15.5">
       <c r="A14" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:4" s="15" customFormat="1" ht="129.6">
+    <row r="15" spans="1:4" s="15" customFormat="1" ht="130.5">
       <c r="A15" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="D15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="129.6">
+    <row r="16" spans="1:4" ht="130.5">
       <c r="A16" s="17" t="s">
         <v>8</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57.6">
+    <row r="17" spans="1:4" ht="58">
       <c r="A17" s="17" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="72">
+    <row r="18" spans="1:4" ht="72.5">
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="187.2">
+    <row r="19" spans="1:4" ht="188.5">
       <c r="A19" s="17" t="s">
         <v>10</v>
       </c>
@@ -1739,13 +1739,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8">
+    <row r="20" spans="1:4" ht="29">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="100.8">
+    <row r="21" spans="1:4" ht="101.5">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="100.8">
+    <row r="22" spans="1:4" ht="101.5">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="28.8">
+    <row r="24" spans="1:4" ht="29">
       <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6">
+    <row r="25" spans="1:4" ht="15.5">
       <c r="A25" s="20" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="1:4" ht="43.2">
+    <row r="26" spans="1:4" ht="43.5">
       <c r="A26" s="17" t="s">
         <v>40</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="72">
+    <row r="27" spans="1:4" ht="72.5">
       <c r="A27" s="17" t="s">
         <v>41</v>
       </c>
@@ -1849,21 +1849,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="57.6">
+    <row r="28" spans="1:4" ht="58">
       <c r="A28" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6">
+    <row r="29" spans="1:4" ht="15.5">
       <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
@@ -1893,13 +1893,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="100.8">
+    <row r="32" spans="1:4" ht="101.5">
       <c r="A32" s="11" t="s">
         <v>49</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="172.8">
+    <row r="33" spans="1:4" ht="174">
       <c r="A33" s="11" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="43.2">
+    <row r="37" spans="1:4" ht="43.5">
       <c r="A37" s="17" t="s">
         <v>57</v>
       </c>
@@ -1983,115 +1983,115 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6">
+    <row r="38" spans="1:4" ht="15.5">
       <c r="A38" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:4" ht="72">
+    <row r="39" spans="1:4" ht="72.5">
       <c r="A39" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="43.2">
+    <row r="40" spans="1:4" ht="43.5">
       <c r="A40" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="D40" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="201.6">
+    <row r="41" spans="1:4" ht="203">
       <c r="A41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="58">
+      <c r="A42" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="57.6">
-      <c r="A42" s="11" t="s">
+      <c r="B42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="101.5">
+      <c r="A43" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="100.8">
-      <c r="A43" s="11" t="s">
+      <c r="B43" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="145">
+      <c r="A44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B44" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="144">
-      <c r="A44" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="87">
+      <c r="A45" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="86.4">
-      <c r="A45" s="11" t="s">
+      <c r="B45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.5">
+      <c r="A46" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18">
-      <c r="A46" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -2099,21 +2099,21 @@
     </row>
     <row r="47" spans="1:4" s="15" customFormat="1">
       <c r="A47" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="1:4" ht="86.4">
+    <row r="48" spans="1:4" ht="87">
       <c r="A48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>14</v>
@@ -2121,21 +2121,21 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18">
+    <row r="50" spans="1:4" ht="18.5">
       <c r="A50" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -2143,35 +2143,35 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
     </row>
-    <row r="52" spans="1:4" ht="28.8">
+    <row r="52" spans="1:4" ht="29">
       <c r="A52" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="43.5">
+      <c r="A53" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="43.2">
-      <c r="A53" s="11" t="s">
+      <c r="B53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>14</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>14</v>
@@ -2193,41 +2193,41 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="159.5">
+      <c r="A56" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="158.4">
-      <c r="A56" s="11" t="s">
+      <c r="B56" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="29">
+      <c r="A57" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.8">
-      <c r="A57" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>14</v>
@@ -2235,21 +2235,21 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18">
+    <row r="59" spans="1:4" ht="18.5">
       <c r="A59" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>14</v>
@@ -2271,41 +2271,41 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="D61" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="15" customFormat="1" ht="259.2">
+    <row r="62" spans="1:4" s="15" customFormat="1" ht="261">
       <c r="A62" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="57.6">
+    <row r="63" spans="1:4" ht="72.5">
       <c r="A63" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>14</v>
@@ -2313,13 +2313,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>14</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>14</v>
@@ -2341,13 +2341,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>14</v>
@@ -2355,55 +2355,55 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="115.2">
+    <row r="68" spans="1:4" ht="116">
       <c r="A68" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="290">
+      <c r="A69" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="72.5">
+      <c r="A70" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="288">
-      <c r="A69" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="11" t="s">
+      <c r="B70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="72">
-      <c r="A70" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>14</v>
@@ -2411,55 +2411,55 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="11" t="s">
+      <c r="D71" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="116">
+      <c r="A72" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="115.2">
-      <c r="A72" s="18" t="s">
+      <c r="B72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="D72" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="87">
+      <c r="A73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="86.4">
-      <c r="A73" s="10" t="s">
+      <c r="B73" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="D73" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="130.5">
+      <c r="A74" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="129.6">
-      <c r="A74" s="10" t="s">
+      <c r="B74" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>14</v>
@@ -2467,21 +2467,21 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>141</v>
-      </c>
       <c r="D75" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18">
+    <row r="76" spans="1:4" ht="18.5">
       <c r="A76" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -2489,13 +2489,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>14</v>
@@ -2503,81 +2503,81 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="D78" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="409.6">
+    <row r="79" spans="1:4" ht="409.5">
       <c r="A79" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="D79" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="29">
+      <c r="A80" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="87">
+      <c r="A81" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="28.8">
-      <c r="A80" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="86.4">
-      <c r="A81" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="129.6">
+    <row r="82" spans="1:4" ht="130.5">
       <c r="A82" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="87">
+      <c r="A83" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="86.4">
-      <c r="A83" s="11" t="s">
+      <c r="B83" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>14</v>
@@ -2585,13 +2585,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>14</v>

--- a/Modules_Boards/SIM800/Main_AT_Commands.xlsx
+++ b/Modules_Boards/SIM800/Main_AT_Commands.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BEB267-3B3F-42EF-88BA-539EEF4DB292}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3AACF-AD5B-4CDF-89ED-FC99E3244C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -754,9 +754,6 @@
     <t>Вернёт локальный IP адрес</t>
   </si>
   <si>
-    <t>AT+CIPSTART="TCP","178.159.98.51","3000"</t>
-  </si>
-  <si>
     <t>Эта команда позволяет установить соединение TCP / UDP, но только в том случае, если модуль находится в состояний IP INITIAL или IP STATUS (в режиме одного соединения). Если задан режим мультисоединения, то состояние должно быть только в IP STATUS. Поэтому необходимо выполнить комманду «AT+CIPSHUT» до того, как пользователь установит TCP/UDP соединение с помощью этой командой, т.е. когда модуль не находится в состоянии IP INITIAL или IP STATUS.
 Когда модуль находится в режиме мультисоединения, перед выполнением этой команды необходимо выполнить комманды «AT+CSTT, AT+CIICR, AT+CIFSR»</t>
   </si>
@@ -799,9 +796,6 @@
   </si>
   <si>
     <t>AT+HTTPINIT</t>
-  </si>
-  <si>
-    <t>AT+HTTPPARA="URL","http://178.159.98.51:3000/esp32"</t>
   </si>
   <si>
     <t>Задание HTTP парвметров. 
@@ -952,17 +946,31 @@
   <si>
     <t>AT+IPR=9600;&amp;w</t>
   </si>
+  <si>
+    <t>AT+CIPSTART="TCP","94.232.214.210","9990"</t>
+  </si>
+  <si>
+    <t>AT+HTTPPARA="URL","http://94.232.214.210:9991"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,79 +1133,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1207,9 +1218,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,20 +1502,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="81" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.5">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1521,15 +1529,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.5">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.75">
+      <c r="A2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="174">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="180">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>15</v>
@@ -1539,8 +1547,8 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="188.5">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="195">
+      <c r="A4" s="20" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1553,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="101.5">
+    <row r="5" spans="1:4" ht="105">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -1567,17 +1575,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="15.5">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="15.75">
+      <c r="A6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" ht="43.5">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>3</v>
@@ -1589,7 +1597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="87">
+    <row r="8" spans="1:4" ht="90">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -1603,13 +1611,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="12" t="s">
@@ -1667,15 +1675,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" s="15" customFormat="1" ht="130.5">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" s="15" customFormat="1" ht="135">
       <c r="A15" s="19" t="s">
         <v>115</v>
       </c>
@@ -1689,7 +1697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="130.5">
+    <row r="16" spans="1:4" ht="135">
       <c r="A16" s="17" t="s">
         <v>8</v>
       </c>
@@ -1703,7 +1711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="58">
+    <row r="17" spans="1:4" ht="75">
       <c r="A17" s="17" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="72.5">
+    <row r="18" spans="1:4" ht="90">
       <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +1739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="188.5">
+    <row r="19" spans="1:4" ht="195">
       <c r="A19" s="17" t="s">
         <v>10</v>
       </c>
@@ -1745,7 +1753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="101.5">
+    <row r="21" spans="1:4" ht="105">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1773,7 +1781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="101.5">
+    <row r="22" spans="1:4" ht="105">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1799,7 +1807,7 @@
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="29">
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" s="11" t="s">
         <v>35</v>
       </c>
@@ -1813,15 +1821,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" ht="43.5">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" ht="45">
       <c r="A26" s="17" t="s">
         <v>40</v>
       </c>
@@ -1835,7 +1843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="72.5">
+    <row r="27" spans="1:4" ht="75">
       <c r="A27" s="17" t="s">
         <v>41</v>
       </c>
@@ -1849,7 +1857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="58">
+    <row r="28" spans="1:4" ht="60">
       <c r="A28" s="17" t="s">
         <v>124</v>
       </c>
@@ -1863,13 +1871,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="11" t="s">
@@ -1885,7 +1893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="30">
       <c r="A31" s="11" t="s">
         <v>48</v>
       </c>
@@ -1899,7 +1907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="101.5">
+    <row r="32" spans="1:4" ht="105">
       <c r="A32" s="11" t="s">
         <v>49</v>
       </c>
@@ -1913,7 +1921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="174">
+    <row r="33" spans="1:4" ht="180">
       <c r="A33" s="11" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="43.5">
+    <row r="37" spans="1:4" ht="45">
       <c r="A37" s="17" t="s">
         <v>57</v>
       </c>
@@ -1983,15 +1991,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.5">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="72.5">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="75">
       <c r="A39" s="11" t="s">
         <v>101</v>
       </c>
@@ -2005,7 +2013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="43.5">
+    <row r="40" spans="1:4" ht="45">
       <c r="A40" s="17" t="s">
         <v>66</v>
       </c>
@@ -2019,7 +2027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="203">
+    <row r="41" spans="1:4" ht="210">
       <c r="A41" s="11" t="s">
         <v>69</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="58">
+    <row r="42" spans="1:4" ht="60">
       <c r="A42" s="11" t="s">
         <v>71</v>
       </c>
@@ -2047,7 +2055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="101.5">
+    <row r="43" spans="1:4" ht="105">
       <c r="A43" s="11" t="s">
         <v>73</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="145">
+    <row r="44" spans="1:4" ht="150">
       <c r="A44" s="11" t="s">
         <v>74</v>
       </c>
@@ -2075,7 +2083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="87">
+    <row r="45" spans="1:4" ht="105">
       <c r="A45" s="11" t="s">
         <v>77</v>
       </c>
@@ -2089,23 +2097,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.5">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:4" ht="18.75">
+      <c r="A46" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" s="15" customFormat="1">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-    </row>
-    <row r="48" spans="1:4" ht="87">
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="1:4" ht="90">
       <c r="A48" s="11" t="s">
         <v>80</v>
       </c>
@@ -2133,23 +2141,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.5">
-      <c r="A50" s="21" t="s">
+    <row r="50" spans="1:4" ht="18.75">
+      <c r="A50" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="1:4" ht="29">
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4" ht="30">
       <c r="A52" s="11" t="s">
         <v>86</v>
       </c>
@@ -2163,7 +2171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="43.5">
+    <row r="53" spans="1:4" ht="45">
       <c r="A53" s="11" t="s">
         <v>88</v>
       </c>
@@ -2205,7 +2213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="159.5">
+    <row r="56" spans="1:4" ht="165">
       <c r="A56" s="11" t="s">
         <v>94</v>
       </c>
@@ -2219,7 +2227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="29">
+    <row r="57" spans="1:4" ht="30">
       <c r="A57" s="11" t="s">
         <v>96</v>
       </c>
@@ -2247,13 +2255,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18.5">
-      <c r="A59" s="21" t="s">
+    <row r="59" spans="1:4" ht="18.75">
+      <c r="A59" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="11" t="s">
@@ -2283,7 +2291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="15" customFormat="1" ht="261">
+    <row r="62" spans="1:4" s="15" customFormat="1" ht="270">
       <c r="A62" s="16" t="s">
         <v>106</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="72.5">
+    <row r="63" spans="1:4" ht="90">
       <c r="A63" s="11" t="s">
         <v>104</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>14</v>
@@ -2361,13 +2369,13 @@
         <v>3</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="116">
+    <row r="68" spans="1:4" ht="120">
       <c r="A68" s="10" t="s">
         <v>126</v>
       </c>
@@ -2375,13 +2383,13 @@
         <v>3</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="290">
+    <row r="69" spans="1:4" ht="300">
       <c r="A69" s="10" t="s">
         <v>128</v>
       </c>
@@ -2395,7 +2403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="72.5">
+    <row r="70" spans="1:4" ht="75">
       <c r="A70" s="10" t="s">
         <v>127</v>
       </c>
@@ -2423,43 +2431,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="116">
+    <row r="72" spans="1:4" ht="120">
       <c r="A72" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="D72" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="90">
+      <c r="A73" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="87">
-      <c r="A73" s="10" t="s">
+      <c r="B73" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="D73" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="135">
+      <c r="A74" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="130.5">
-      <c r="A74" s="10" t="s">
+      <c r="B74" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>14</v>
@@ -2467,35 +2475,35 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="D75" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18.5">
-      <c r="A76" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
+    <row r="76" spans="1:4" ht="18.75">
+      <c r="A76" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>14</v>
@@ -2503,13 +2511,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>14</v>
@@ -2517,67 +2525,67 @@
     </row>
     <row r="79" spans="1:4" ht="409.5">
       <c r="A79" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30">
+      <c r="A80" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="90">
+      <c r="A81" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="29">
-      <c r="A80" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="87">
-      <c r="A81" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="130.5">
+    <row r="82" spans="1:4" ht="135">
       <c r="A82" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="120">
+      <c r="A83" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="B83" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="87">
-      <c r="A83" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>14</v>
@@ -2585,13 +2593,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>14</v>

--- a/Modules_Boards/SIM800/Main_AT_Commands.xlsx
+++ b/Modules_Boards/SIM800/Main_AT_Commands.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3AACF-AD5B-4CDF-89ED-FC99E3244C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCCCF5-4DF5-41E5-AD01-5C55F78DBA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="164">
   <si>
     <t>Комманда</t>
   </si>
@@ -648,9 +648,6 @@
   </si>
   <si>
     <t>AT+CGATT=1</t>
-  </si>
-  <si>
-    <t>Разрешает услуги GPRS</t>
   </si>
   <si>
     <t>Возвращает статус разрешения подключения услуги GPRS</t>
@@ -951,6 +948,17 @@
   </si>
   <si>
     <t>AT+HTTPPARA="URL","http://94.232.214.210:9991"</t>
+  </si>
+  <si>
+    <t>Разрешает услуги GPRS (устанавливается автоматически)</t>
+  </si>
+  <si>
+    <t>AT+CIPMUX=n</t>
+  </si>
+  <si>
+    <t>Выбор типа соединения:
+0 - Single connection
+1 - Multi connection</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1046,7 @@
       <name val="TimesNewRomanPSMT"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1068,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1181,44 +1195,47 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1530,12 +1547,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="15.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="180">
       <c r="A3" s="8"/>
@@ -1548,8 +1565,8 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="195">
-      <c r="A4" s="20" t="s">
-        <v>125</v>
+      <c r="A4" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
@@ -1576,16 +1593,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" ht="15.75">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>3</v>
@@ -1612,12 +1629,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="12" t="s">
@@ -1676,15 +1693,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" s="15" customFormat="1" ht="135">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -1822,12 +1839,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="45">
       <c r="A26" s="17" t="s">
@@ -1859,25 +1876,25 @@
     </row>
     <row r="28" spans="1:4" ht="60">
       <c r="A28" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="11" t="s">
@@ -1992,12 +2009,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="75">
       <c r="A39" s="11" t="s">
@@ -2098,20 +2115,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" s="15" customFormat="1">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="90">
       <c r="A48" s="11" t="s">
@@ -2142,20 +2159,20 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" ht="30">
       <c r="A52" s="11" t="s">
@@ -2256,12 +2273,12 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="11" t="s">
@@ -2271,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>14</v>
@@ -2285,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>14</v>
@@ -2327,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>14</v>
@@ -2369,247 +2386,255 @@
         <v>3</v>
       </c>
       <c r="C67" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45">
+      <c r="A68" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="120">
+      <c r="A69" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="300">
+      <c r="A70" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="75">
+      <c r="A71" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="120">
+      <c r="A73" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="90">
+      <c r="A74" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="135">
+      <c r="A75" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.75">
+      <c r="A77" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="120">
-      <c r="A68" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="300">
-      <c r="A69" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="75">
-      <c r="A70" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="120">
-      <c r="A72" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="90">
-      <c r="A73" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="135">
-      <c r="A74" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="18.75">
-      <c r="A76" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="D79" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="409.5">
+      <c r="A80" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30">
+      <c r="A81" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="90">
+      <c r="A82" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="135">
+      <c r="A83" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="409.5">
-      <c r="A79" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="30">
-      <c r="A80" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="90">
-      <c r="A81" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11" t="s">
+      <c r="B83" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="120">
+      <c r="A84" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="135">
-      <c r="A82" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="120">
-      <c r="A83" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="11" t="s">
+      <c r="B85" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="D85" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="11"/>
@@ -2623,11 +2648,17 @@
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
     </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>

--- a/Modules_Boards/SIM800/Main_AT_Commands.xlsx
+++ b/Modules_Boards/SIM800/Main_AT_Commands.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCCCF5-4DF5-41E5-AD01-5C55F78DBA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D401BE06-1B69-4E17-832A-B342722C0383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -708,9 +708,6 @@
   </si>
   <si>
     <t>AT+CSCLK=2</t>
-  </si>
-  <si>
-    <t>AT+CSTT="CMNET"</t>
   </si>
   <si>
     <t>AT+CIICR</t>
@@ -953,12 +950,15 @@
     <t>Разрешает услуги GPRS (устанавливается автоматически)</t>
   </si>
   <si>
-    <t>AT+CIPMUX=n</t>
-  </si>
-  <si>
     <t>Выбор типа соединения:
 0 - Single connection
 1 - Multi connection</t>
+  </si>
+  <si>
+    <t>AT+CSTT="internet"</t>
+  </si>
+  <si>
+    <t>AT+CIPMUX=0</t>
   </si>
 </sst>
 </file>
@@ -1201,41 +1201,41 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1547,12 +1547,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="15.75">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="180">
       <c r="A3" s="8"/>
@@ -1593,16 +1593,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" ht="15.75">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>3</v>
@@ -1629,12 +1629,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="12" t="s">
@@ -1693,12 +1693,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" s="15" customFormat="1" ht="135">
       <c r="A15" s="18" t="s">
@@ -1839,12 +1839,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="45">
       <c r="A26" s="17" t="s">
@@ -1889,12 +1889,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="11" t="s">
@@ -2009,12 +2009,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" ht="75">
       <c r="A39" s="11" t="s">
@@ -2115,20 +2115,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" s="15" customFormat="1">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="90">
       <c r="A48" s="11" t="s">
@@ -2159,20 +2159,20 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" ht="30">
       <c r="A52" s="11" t="s">
@@ -2273,12 +2273,12 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="11" t="s">
@@ -2302,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>14</v>
@@ -2344,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>14</v>
@@ -2386,155 +2386,155 @@
         <v>3</v>
       </c>
       <c r="C67" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45">
+      <c r="A68" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="120">
+      <c r="A69" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="300">
+      <c r="A70" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="75">
+      <c r="A71" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="120">
+      <c r="A73" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="90">
+      <c r="A74" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="135">
+      <c r="A75" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.75">
+      <c r="A77" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="45">
-      <c r="A68" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="120">
-      <c r="A69" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="300">
-      <c r="A70" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="75">
-      <c r="A71" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="120">
-      <c r="A73" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="90">
-      <c r="A74" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="135">
-      <c r="A75" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="18.75">
-      <c r="A77" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>14</v>
@@ -2542,13 +2542,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>14</v>
@@ -2556,13 +2556,13 @@
     </row>
     <row r="80" spans="1:4" ht="409.5">
       <c r="A80" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>14</v>
@@ -2570,13 +2570,13 @@
     </row>
     <row r="81" spans="1:4" ht="30">
       <c r="A81" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>14</v>
@@ -2584,11 +2584,11 @@
     </row>
     <row r="82" spans="1:4" ht="90">
       <c r="A82" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>14</v>
@@ -2596,13 +2596,13 @@
     </row>
     <row r="83" spans="1:4" ht="135">
       <c r="A83" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>14</v>
@@ -2610,13 +2610,13 @@
     </row>
     <row r="84" spans="1:4" ht="120">
       <c r="A84" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>14</v>
@@ -2624,13 +2624,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>14</v>
